--- a/data/trans_orig/P1412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7328</v>
+        <v>7429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22725</v>
+        <v>21952</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01384761582352829</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00751864475334232</v>
+        <v>0.007622221302545078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02331604456470834</v>
+        <v>0.02252282762003839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -764,19 +764,19 @@
         <v>21614</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13784</v>
+        <v>13944</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33676</v>
+        <v>32704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01617097827789398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01031274600035596</v>
+        <v>0.0104324427430552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02519482693610233</v>
+        <v>0.02446802852941104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -785,19 +785,19 @@
         <v>35111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25069</v>
+        <v>25055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50278</v>
+        <v>47931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01519123037594362</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01084643877849124</v>
+        <v>0.01084030442078599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02175348157937711</v>
+        <v>0.02073809974285398</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>961147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>951918</v>
+        <v>952691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>967315</v>
+        <v>967214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9861523841764717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9766839554352916</v>
+        <v>0.9774771723799616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9924813552466577</v>
+        <v>0.9923777786974549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1226</v>
@@ -835,19 +835,19 @@
         <v>1315000</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1302938</v>
+        <v>1303910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1322830</v>
+        <v>1322670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9838290217221061</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9748051730638976</v>
+        <v>0.9755319714705892</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.989687253999644</v>
+        <v>0.9895675572569448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2121</v>
@@ -856,19 +856,19 @@
         <v>2276146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2260979</v>
+        <v>2263326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2286188</v>
+        <v>2286202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9848087696240564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9782465184206227</v>
+        <v>0.979261900257146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891535612215088</v>
+        <v>0.9891596955792139</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>9472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4119</v>
+        <v>4081</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19908</v>
+        <v>19598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004822672803329871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00209707204683756</v>
+        <v>0.002077803783206637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01013677957609517</v>
+        <v>0.009978851329756689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7112</v>
+        <v>7094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001204042758802319</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.004055777033501758</v>
+        <v>0.00404555667790677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1002,19 +1002,19 @@
         <v>11583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5548</v>
+        <v>5392</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22613</v>
+        <v>21600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003115714590580021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001492462139215673</v>
+        <v>0.001450365834967269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006082760196273127</v>
+        <v>0.005810229470214043</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1954485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1944049</v>
+        <v>1944359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1959838</v>
+        <v>1959876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9951773271966702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9898632204239048</v>
+        <v>0.9900211486702432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979029279531625</v>
+        <v>0.9979221962167933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1630</v>
@@ -1052,7 +1052,7 @@
         <v>1751534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1746533</v>
+        <v>1746551</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1753645</v>
@@ -1061,7 +1061,7 @@
         <v>0.9987959572411976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9959442229664988</v>
+        <v>0.9959544433220934</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1073,19 +1073,19 @@
         <v>3706019</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3694989</v>
+        <v>3696002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3712054</v>
+        <v>3712210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.99688428540942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9939172398037268</v>
+        <v>0.9941897705297852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985075378607844</v>
+        <v>0.9985496341650326</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5263</v>
+        <v>5283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002295218304018806</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01147451918282386</v>
+        <v>0.01151875781134484</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5299</v>
+        <v>5311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001120072821747435</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00563848672219376</v>
+        <v>0.00565111903985878</v>
       </c>
     </row>
     <row r="11">
@@ -1253,7 +1253,7 @@
         <v>457578</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>453368</v>
+        <v>453348</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -1262,7 +1262,7 @@
         <v>0.9977047816959812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9885254808171763</v>
+        <v>0.9884812421886552</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>938760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>934514</v>
+        <v>934502</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>939813</v>
@@ -1283,7 +1283,7 @@
         <v>0.9988799271782526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9943615132778062</v>
+        <v>0.9943488809601413</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1378,19 +1378,19 @@
         <v>22968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14838</v>
+        <v>14252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35716</v>
+        <v>34657</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006716219610837371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004338812559918206</v>
+        <v>0.00416743409737482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0104438184087519</v>
+        <v>0.01013429241510038</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1399,19 +1399,19 @@
         <v>24778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15755</v>
+        <v>16266</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35605</v>
+        <v>36875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006982035742228795</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00443937857561391</v>
+        <v>0.00458338527707315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01003267855616195</v>
+        <v>0.01039067449163758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1420,19 +1420,19 @@
         <v>47746</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34718</v>
+        <v>34864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63582</v>
+        <v>64357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006851590048025844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00498200367769306</v>
+        <v>0.005002973341872744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009123922021197861</v>
+        <v>0.009235176214767426</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>3396814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3384066</v>
+        <v>3385125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3404944</v>
+        <v>3405530</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9932837803891627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9895561815912483</v>
+        <v>0.9898657075848996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956611874400818</v>
+        <v>0.9958325659026251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3267</v>
@@ -1470,19 +1470,19 @@
         <v>3524112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3513285</v>
+        <v>3512015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3533135</v>
+        <v>3532624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9930179642577712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9899673214438378</v>
+        <v>0.9896093255083624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955606214243861</v>
+        <v>0.9954166147229269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6448</v>
@@ -1491,19 +1491,19 @@
         <v>6920925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6905089</v>
+        <v>6904314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6933953</v>
+        <v>6933807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931484099519742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9908760779788022</v>
+        <v>0.9907648237852329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9950179963223069</v>
+        <v>0.9949970266581274</v>
       </c>
     </row>
     <row r="15">
@@ -1834,19 +1834,19 @@
         <v>13583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8010</v>
+        <v>8002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21532</v>
+        <v>22427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01800676233296215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01061860210967494</v>
+        <v>0.01060824755636923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0285441596657502</v>
+        <v>0.02973089944750753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -1855,19 +1855,19 @@
         <v>13633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7065</v>
+        <v>7607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22925</v>
+        <v>24121</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01370579172912826</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007103316945781649</v>
+        <v>0.007648023334789518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02304840899384185</v>
+        <v>0.02425080888201395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -1876,19 +1876,19 @@
         <v>27216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17992</v>
+        <v>18683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38469</v>
+        <v>41200</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01556080054734848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0102870983020419</v>
+        <v>0.01068199408678835</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02199463464128001</v>
+        <v>0.02355648084345486</v>
       </c>
     </row>
     <row r="5">
@@ -1905,19 +1905,19 @@
         <v>740764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>732815</v>
+        <v>731920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746337</v>
+        <v>746345</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9819932376670378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9714558403342499</v>
+        <v>0.9702691005524926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9893813978903251</v>
+        <v>0.9893917524436309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>880</v>
@@ -1926,19 +1926,19 @@
         <v>981027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>971735</v>
+        <v>970539</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>987595</v>
+        <v>987053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9862942082708718</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9769515910061581</v>
+        <v>0.9757491911179859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9928966830542183</v>
+        <v>0.9923519766652105</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1627</v>
@@ -1947,19 +1947,19 @@
         <v>1721791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1710538</v>
+        <v>1707807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1731015</v>
+        <v>1730324</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9844391994526516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9780053653587198</v>
+        <v>0.9764435191565454</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9897129016979581</v>
+        <v>0.9893180059132121</v>
       </c>
     </row>
     <row r="6">
@@ -2051,19 +2051,19 @@
         <v>8708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4169</v>
+        <v>4219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17491</v>
+        <v>16410</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004193890403421593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002007949057902089</v>
+        <v>0.00203188624151343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008423545117409347</v>
+        <v>0.007903006081468034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2072,19 +2072,19 @@
         <v>4525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1256</v>
+        <v>1076</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11618</v>
+        <v>10489</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002275751784812315</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0006317098110311074</v>
+        <v>0.0005411340269421873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005843091390622638</v>
+        <v>0.005275334429478963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2093,19 +2093,19 @@
         <v>13233</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6827</v>
+        <v>7422</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22114</v>
+        <v>22585</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003255604875451718</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001679489059201906</v>
+        <v>0.001825957830657795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005440516863213165</v>
+        <v>0.005556419106637324</v>
       </c>
     </row>
     <row r="8">
@@ -2122,19 +2122,19 @@
         <v>2067677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2058894</v>
+        <v>2059975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2072216</v>
+        <v>2072166</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9958061095965784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9915764548825906</v>
+        <v>0.992096993918532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979920509420979</v>
+        <v>0.9979681137584866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1904</v>
@@ -2143,19 +2143,19 @@
         <v>1983775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1976682</v>
+        <v>1977811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1987044</v>
+        <v>1987224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9977242482151877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9941569086093774</v>
+        <v>0.9947246655705212</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9993682901889689</v>
+        <v>0.9994588659730578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3848</v>
@@ -2164,19 +2164,19 @@
         <v>4051452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4042571</v>
+        <v>4042100</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4057858</v>
+        <v>4057263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9967443951245483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9945594831367863</v>
+        <v>0.9944435808933623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983205109407979</v>
+        <v>0.9981740421693419</v>
       </c>
     </row>
     <row r="9">
@@ -2268,19 +2268,19 @@
         <v>3863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11869</v>
+        <v>10542</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007063510169572428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001689354749329098</v>
+        <v>0.001681069535176926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02170215973180682</v>
+        <v>0.01927665405229968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4849</v>
+        <v>4155</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001867905052184063</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008830413948124612</v>
+        <v>0.007566709840027799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -2310,19 +2310,19 @@
         <v>4889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13020</v>
+        <v>12790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00446036483986044</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001050454504995814</v>
+        <v>0.001053291737528235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01187955704020212</v>
+        <v>0.01166974747242987</v>
       </c>
     </row>
     <row r="11">
@@ -2339,19 +2339,19 @@
         <v>543023</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535017</v>
+        <v>536344</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545962</v>
+        <v>545967</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9929364898304276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9782978402681933</v>
+        <v>0.9807233459477007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983106452506709</v>
+        <v>0.9983189304648231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>525</v>
@@ -2360,7 +2360,7 @@
         <v>548114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>544291</v>
+        <v>544985</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -2369,7 +2369,7 @@
         <v>0.998132094947816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9911695860518753</v>
+        <v>0.9924332901599723</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2381,19 +2381,19 @@
         <v>1091138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1083007</v>
+        <v>1083237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1094876</v>
+        <v>1094873</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9955396351601395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881204429597985</v>
+        <v>0.9883302525275703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989495454950043</v>
+        <v>0.9989467082624718</v>
       </c>
     </row>
     <row r="12">
@@ -2485,19 +2485,19 @@
         <v>26154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17751</v>
+        <v>16834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37861</v>
+        <v>37659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007743448531056536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005255345560929521</v>
+        <v>0.004983862744300472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01120932021445247</v>
+        <v>0.01114953075205055</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -2506,19 +2506,19 @@
         <v>19183</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11485</v>
+        <v>11776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31063</v>
+        <v>30257</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005431109440519724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003251575071085135</v>
+        <v>0.003334097622436657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008794462540089063</v>
+        <v>0.008566342445774694</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -2527,19 +2527,19 @@
         <v>45338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33364</v>
+        <v>33248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61330</v>
+        <v>62270</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006561430157251013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00482853751188349</v>
+        <v>0.004811808393069156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008875889018685973</v>
+        <v>0.009011946591814386</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>3351464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3339757</v>
+        <v>3339959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3359867</v>
+        <v>3360784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9922565514689434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9887906797855476</v>
+        <v>0.9888504692479495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947446544390708</v>
+        <v>0.9950161372556997</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3309</v>
@@ -2577,19 +2577,19 @@
         <v>3512917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3501037</v>
+        <v>3501843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3520615</v>
+        <v>3520324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9945688905594803</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9912055374599108</v>
+        <v>0.9914336575542253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9967484249289148</v>
+        <v>0.9966659023775633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6498</v>
@@ -2598,19 +2598,19 @@
         <v>6864380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6848388</v>
+        <v>6847448</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6876354</v>
+        <v>6876470</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.993438569842749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9911241109813139</v>
+        <v>0.9909880534081855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951714624881164</v>
+        <v>0.9951881916069308</v>
       </c>
     </row>
     <row r="15">
@@ -2941,19 +2941,19 @@
         <v>12126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7062</v>
+        <v>7146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20777</v>
+        <v>20835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02104749758482374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01225778593695957</v>
+        <v>0.01240273564663203</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0360618845369065</v>
+        <v>0.03616330273292259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2962,19 +2962,19 @@
         <v>11063</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6944</v>
+        <v>6913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16802</v>
+        <v>16541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0134693928785356</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008454819219162199</v>
+        <v>0.008416382495770437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02045773672487144</v>
+        <v>0.02013910742426115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2983,19 +2983,19 @@
         <v>23189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16983</v>
+        <v>16571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34322</v>
+        <v>31846</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01659368969328536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01215247155856411</v>
+        <v>0.01185772293720052</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02456019290794814</v>
+        <v>0.0227884629650774</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>564017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>555366</v>
+        <v>555308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>569081</v>
+        <v>568997</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9789525024151764</v>
+        <v>0.9789525024151762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9639381154630935</v>
+        <v>0.9638366972670768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9877422140630403</v>
+        <v>0.9875972643533676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1404</v>
@@ -3033,19 +3033,19 @@
         <v>810252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>804513</v>
+        <v>804774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>814371</v>
+        <v>814402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9865306071214645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9795422632751289</v>
+        <v>0.9798608925757388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9915451807808379</v>
+        <v>0.9915836175042294</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2076</v>
@@ -3054,19 +3054,19 @@
         <v>1374270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1363137</v>
+        <v>1365613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1380476</v>
+        <v>1380888</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9834063103067147</v>
+        <v>0.9834063103067148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9754398070920519</v>
+        <v>0.9772115370349227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9878475284414358</v>
+        <v>0.9881422770627994</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>14025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8263</v>
+        <v>8489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23096</v>
+        <v>23394</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006294071249540341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003708109988856448</v>
+        <v>0.003809554206392444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01036467883077017</v>
+        <v>0.01049835331823395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3179,19 +3179,19 @@
         <v>8642</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4629</v>
+        <v>4853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14982</v>
+        <v>14986</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.003985702853121498</v>
+        <v>0.003985702853121497</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00213492267916924</v>
+        <v>0.00223813442735179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006909907216615792</v>
+        <v>0.006911558818644533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3200,19 +3200,19 @@
         <v>22667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15487</v>
+        <v>15314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31980</v>
+        <v>33509</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005155669717952339</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003522550308962292</v>
+        <v>0.003483082156871169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007273885584025382</v>
+        <v>0.0076215246017262</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>2214318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2205247</v>
+        <v>2204949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2220080</v>
+        <v>2219854</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9937059287504598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9896353211692301</v>
+        <v>0.9895016466817662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962918900111433</v>
+        <v>0.9961904457936078</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2903</v>
@@ -3250,19 +3250,19 @@
         <v>2159581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2153241</v>
+        <v>2153237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2163594</v>
+        <v>2163370</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9960142971468786</v>
+        <v>0.9960142971468784</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9930900927833842</v>
+        <v>0.9930884411813554</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9978650773208309</v>
+        <v>0.9977618655726482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4876</v>
@@ -3271,19 +3271,19 @@
         <v>4373898</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4364585</v>
+        <v>4363056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4381078</v>
+        <v>4381251</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9948443302820474</v>
+        <v>0.9948443302820477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9927261144159745</v>
+        <v>0.9923784753982716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9964774496910376</v>
+        <v>0.9965169178431286</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>6519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3273</v>
+        <v>3314</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12215</v>
+        <v>12110</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009161522999663451</v>
+        <v>0.009161522999663449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004599670992935493</v>
+        <v>0.004656527307156338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01716537010118341</v>
+        <v>0.01701777347504634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3850</v>
+        <v>3924</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00172751588031332</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005248931825144135</v>
+        <v>0.005349545778685791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3417,19 +3417,19 @@
         <v>7786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3878</v>
+        <v>3920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14337</v>
+        <v>13260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005388190803746845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002683552169924162</v>
+        <v>0.002712331155460408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009921598239852</v>
+        <v>0.009176204830261466</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>705068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>699372</v>
+        <v>699477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>708314</v>
+        <v>708273</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9908384770003367</v>
+        <v>0.9908384770003366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9828346298988169</v>
+        <v>0.9829822265249534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954003290070645</v>
+        <v>0.9953434726928437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1000</v>
@@ -3467,16 +3467,16 @@
         <v>732219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729636</v>
+        <v>729562</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>733486</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9982724841196867</v>
+        <v>0.9982724841196866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9947510681748558</v>
+        <v>0.994650454221314</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3488,19 +3488,19 @@
         <v>1437287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1430736</v>
+        <v>1431813</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1441195</v>
+        <v>1441153</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9946118091962531</v>
+        <v>0.9946118091962534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9900784017601476</v>
+        <v>0.9908237951697384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973164478300757</v>
+        <v>0.9972876688445397</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>32671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23216</v>
+        <v>23576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45535</v>
+        <v>45341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00929188488429958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006602918356854372</v>
+        <v>0.00670530825049196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0129506576041058</v>
+        <v>0.01289527739273294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3613,19 +3613,19 @@
         <v>20972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15034</v>
+        <v>14741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29740</v>
+        <v>28965</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.005632952429295913</v>
+        <v>0.005632952429295914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004038225453768106</v>
+        <v>0.003959328615560204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007988248280121138</v>
+        <v>0.00778005989625908</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -3634,19 +3634,19 @@
         <v>53643</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43143</v>
+        <v>42113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66904</v>
+        <v>65537</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007410118001409353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005959781176845407</v>
+        <v>0.005817388930072082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009242063152975537</v>
+        <v>0.009053212234014171</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>3483402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3470538</v>
+        <v>3470732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3492857</v>
+        <v>3492497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9907081151157004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9870493423958944</v>
+        <v>0.987104722607267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9933970816431458</v>
+        <v>0.993294691749508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5307</v>
@@ -3684,19 +3684,19 @@
         <v>3702052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3693284</v>
+        <v>3694059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3707990</v>
+        <v>3708283</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.994367047570704</v>
+        <v>0.9943670475707042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9920117517198789</v>
+        <v>0.9922199401037408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9959617745462319</v>
+        <v>0.9960406713844396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8624</v>
@@ -3705,19 +3705,19 @@
         <v>7185454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7172193</v>
+        <v>7173560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7195954</v>
+        <v>7196984</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9925898819985908</v>
+        <v>0.9925898819985907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9907579368470246</v>
+        <v>0.990946787765986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940402188231546</v>
+        <v>0.9941826110699281</v>
       </c>
     </row>
     <row r="15">
